--- a/leetcode/already.xlsx
+++ b/leetcode/already.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -338,237 +338,257 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A45"/>
+  <dimension ref="A1:A49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>529</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>322</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>752</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>704</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>141</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>142</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>876</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>167</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>344</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>567</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>438</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>121</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>122</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>123</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>188</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>309</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>714</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>198</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>213</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>337</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1288</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>986</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>226</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>114</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>116</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/leetcode/already.xlsx
+++ b/leetcode/already.xlsx
@@ -338,10 +338,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A49"/>
+  <dimension ref="A1:A52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -591,6 +591,21 @@
         <v>25</v>
       </c>
     </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>652</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/leetcode/already.xlsx
+++ b/leetcode/already.xlsx
@@ -338,10 +338,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A52"/>
+  <dimension ref="A1:A58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -606,6 +606,36 @@
         <v>652</v>
       </c>
     </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>450</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/leetcode/already.xlsx
+++ b/leetcode/already.xlsx
@@ -338,10 +338,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A58"/>
+  <dimension ref="A1:A60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -636,6 +636,16 @@
         <v>450</v>
       </c>
     </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>95</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/leetcode/already.xlsx
+++ b/leetcode/already.xlsx
@@ -338,10 +338,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A60"/>
+  <dimension ref="A1:A63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+      <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -646,6 +646,21 @@
         <v>95</v>
       </c>
     </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>297</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/leetcode/already.xlsx
+++ b/leetcode/already.xlsx
@@ -338,7 +338,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A63"/>
+  <dimension ref="A1:A64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
       <selection activeCell="A64" sqref="A64"/>
@@ -661,6 +661,11 @@
         <v>297</v>
       </c>
     </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>171</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/leetcode/already.xlsx
+++ b/leetcode/already.xlsx
@@ -16,6 +16,19 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>*236</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*1047</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -338,10 +351,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A64"/>
+  <dimension ref="A1:A66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -666,6 +679,16 @@
         <v>171</v>
       </c>
     </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/leetcode/already.xlsx
+++ b/leetcode/already.xlsx
@@ -19,13 +19,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>*236</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>*1047</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*341</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -351,10 +355,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A66"/>
+  <dimension ref="A1:A68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="C65" sqref="C65"/>
+      <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -689,6 +693,16 @@
         <v>1</v>
       </c>
     </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>118</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/leetcode/already.xlsx
+++ b/leetcode/already.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>*236</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -30,6 +30,10 @@
   </si>
   <si>
     <t>*341</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*797</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -355,10 +359,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A68"/>
+  <dimension ref="A1:A71"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69"/>
+      <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -703,6 +707,21 @@
         <v>118</v>
       </c>
     </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>176</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/leetcode/already.xlsx
+++ b/leetcode/already.xlsx
@@ -359,10 +359,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A71"/>
+  <dimension ref="A1:A72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+      <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -722,6 +722,11 @@
         <v>176</v>
       </c>
     </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>620</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/leetcode/already.xlsx
+++ b/leetcode/already.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>*236</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,6 +34,10 @@
   </si>
   <si>
     <t>*797</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*210</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -359,372 +363,382 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A72"/>
+  <dimension ref="A1:A74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72"/>
+      <selection activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>529</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>322</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>752</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>704</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>141</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>142</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>876</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>167</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>344</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>567</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>438</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>121</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>122</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>123</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>188</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>309</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>714</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>198</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>213</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>337</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1288</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>986</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>226</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>114</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>116</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>92</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>234</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>654</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>105</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>106</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>652</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>230</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>538</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>700</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>98</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>701</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>450</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>96</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>95</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>222</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1373</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>297</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>171</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>118</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>119</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>176</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>620</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/leetcode/already.xlsx
+++ b/leetcode/already.xlsx
@@ -363,10 +363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A74"/>
+  <dimension ref="A1:A77"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="D77" sqref="D77"/>
+      <selection activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -741,6 +741,21 @@
         <v>4</v>
       </c>
     </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>146</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/leetcode/already.xlsx
+++ b/leetcode/already.xlsx
@@ -363,10 +363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A77"/>
+  <dimension ref="A1:A79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="E73" sqref="E73"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -756,6 +756,16 @@
         <v>146</v>
       </c>
     </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>895</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/leetcode/already.xlsx
+++ b/leetcode/already.xlsx
@@ -363,10 +363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A79"/>
+  <dimension ref="A1:A84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="A80" sqref="A80"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="A85" sqref="A85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -766,6 +766,31 @@
         <v>895</v>
       </c>
     </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>739</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/leetcode/already.xlsx
+++ b/leetcode/already.xlsx
@@ -363,10 +363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A84"/>
+  <dimension ref="A1:A88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="A85" sqref="A85"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="A90" sqref="A90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -791,6 +791,26 @@
         <v>739</v>
       </c>
     </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>710</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
